--- a/Documents/instructions.xlsx
+++ b/Documents/instructions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCB Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace2\SCB_TEST\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE4080D-41FB-4F2E-96BC-566AD8C965EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DC06D9-2017-4793-8FD8-90BE237AED5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EFF0F92A-2518-4177-A4D6-858D25C953AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFF0F92A-2518-4177-A4D6-858D25C953AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup Instructions" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,10 @@
 - security.oauth2.client.client-secret</t>
   </si>
   <si>
-    <t>Use the returned access token from step 5 to call the web API</t>
-  </si>
-  <si>
     <t>curl -H "Authorization: Bearer ${TOKEN}" http://localhost:8080/bookstore/books</t>
+  </si>
+  <si>
+    <t>Use the returned access token from step 1 to call the web API</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DDF4A9-A299-4F32-BE20-27975A3372BF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBB8879-B09A-4A11-B74F-BAF5D9F31BA0}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
